--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -89,19 +89,145 @@
   </si>
   <si>
     <t>dict - iteration takes less time in dict than list</t>
+  </si>
+  <si>
+    <t>positive_infnity = float('inf')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">negative_infnity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40424E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF1493"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'-inf'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>if -ve nos are also a posibility, we can use -infinity or infinity and store them in variables for comparisions</t>
+  </si>
+  <si>
+    <t>abs() gives the absolute value or it will take any integer and give +ve value</t>
+  </si>
+  <si>
+    <t>abs(-333) -&gt; 333</t>
+  </si>
+  <si>
+    <t>int.bit_length() - -Returns the number of bits required to represent an integer in binary, excluding the sign and leading zeros.</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(num.bit_length())</t>
+    </r>
+  </si>
+  <si>
+    <t>return not stack</t>
+  </si>
+  <si>
+    <t>in this command,if the stack is empty, it will return True and False if it is not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006699"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40424E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF1493"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,8 +250,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +675,45 @@
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Description</t>
   </si>
@@ -184,13 +184,72 @@
   </si>
   <si>
     <t>in this command,if the stack is empty, it will return True and False if it is not</t>
+  </si>
+  <si>
+    <t>converting a list into string</t>
+  </si>
+  <si>
+    <r>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(list_name)</t>
+    </r>
+  </si>
+  <si>
+    <t>Set in pyhton - Set items are unordered, unchangeable, and do not allow duplicate values.</t>
+  </si>
+  <si>
+    <t>return len(set(sentence)) == 26</t>
+  </si>
+  <si>
+    <t>The ord() function returns the number representing the unicode code of a specified character.</t>
+  </si>
+  <si>
+    <t>the chr() functions returns the  character associated to it</t>
+  </si>
+  <si>
+    <t>ord("h") -&gt; 104</t>
+  </si>
+  <si>
+    <t>chr(104) -&gt; h</t>
+  </si>
+  <si>
+    <t>there is a difference of 32 characters b/w the capital alphabets and smallcase alphabets in unicode</t>
+  </si>
+  <si>
+    <t>newno = ord(c) + 32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +288,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,10 +321,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +784,46 @@
         <v>32</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -25,9 +25,6 @@
     <t>list(map(int,input()))</t>
   </si>
   <si>
-    <t>take two different int at the same time</t>
-  </si>
-  <si>
     <t>list(map(int,input().split()))</t>
   </si>
   <si>
@@ -186,41 +183,6 @@
     <t>in this command,if the stack is empty, it will return True and False if it is not</t>
   </si>
   <si>
-    <t>converting a list into string</t>
-  </si>
-  <si>
-    <r>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(list_name)</t>
-    </r>
-  </si>
-  <si>
     <t>Set in pyhton - Set items are unordered, unchangeable, and do not allow duplicate values.</t>
   </si>
   <si>
@@ -243,13 +205,22 @@
   </si>
   <si>
     <t>newno = ord(c) + 32</t>
+  </si>
+  <si>
+    <t>"".join(list_name)</t>
+  </si>
+  <si>
+    <t>converting a list/tuple/dictionry  into string</t>
+  </si>
+  <si>
+    <t>take two different int at the same time- split() converts to a list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +262,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -632,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,171 +622,171 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Description</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>take two different int at the same time- split() converts to a list</t>
+  </si>
+  <si>
+    <t>converting decimal to binary-&gt; bin() function is used. It gives output as 0b(binaryno)</t>
+  </si>
+  <si>
+    <t>return bin(n).replace("0b", "") or return bin(num)[2:]</t>
   </si>
 </sst>
 </file>
@@ -595,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +795,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Description</t>
   </si>
@@ -220,6 +221,12 @@
   </si>
   <si>
     <t>return bin(n).replace("0b", "") or return bin(num)[2:]</t>
+  </si>
+  <si>
+    <t>Rule: any number will have the same bit count(no of 1's) as half that number, with an extra one if it's an odd number.</t>
+  </si>
+  <si>
+    <t>&gt;&gt; and &lt;&lt;</t>
   </si>
 </sst>
 </file>
@@ -601,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +810,16 @@
         <v>45</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
